--- a/Project/HLR/Demo Blaze HLR.xlsx
+++ b/Project/HLR/Demo Blaze HLR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VishalPC\OneDrive\Desktop\Tops Assignment\jagu-record\Project\HLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C434D4-2867-4611-A398-B46892B0D3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD3C83F-F523-4121-BA81-9A62A189BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E79D05AB-CFF6-41BC-BA89-65B8922AC22B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E79D05AB-CFF6-41BC-BA89-65B8922AC22B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t xml:space="preserve">When click on </t>
   </si>
   <si>
-    <t>check sign-up  button</t>
-  </si>
-  <si>
     <t>when Enter Detail and click sign up it is signin gup</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>check Monitor button</t>
   </si>
   <si>
-    <t>when click on Monitor buton It opens all the options of monitor in the application</t>
-  </si>
-  <si>
     <t>check particular product image</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>check login button in home page</t>
   </si>
   <si>
-    <t>check Login button Login page</t>
-  </si>
-  <si>
     <t>when click on login buttton with valid data it login the  account</t>
   </si>
   <si>
@@ -238,6 +229,15 @@
   </si>
   <si>
     <t>when click on log out button it logouts from account</t>
+  </si>
+  <si>
+    <t>check Login button in Login page</t>
+  </si>
+  <si>
+    <t>check sign-up  button in sign up page</t>
+  </si>
+  <si>
+    <t>when click on Monitor button it opens all the monitor that is available in the application</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEF13B1-7E0E-4B79-81AC-003284C94479}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -768,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -801,10 +801,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -812,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -823,10 +823,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -856,10 +856,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -873,15 +873,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -889,10 +889,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -900,10 +900,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -911,10 +911,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
@@ -922,10 +922,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -933,98 +933,98 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1032,10 +1032,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
